--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1788141.95733889</v>
+        <v>1782420.345371003</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>360.4840829176713</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>115.2511029009962</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>110.686079378997</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>70.56792229746453</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>213.7983364272944</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>28.11374845278264</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>153.052964166187</v>
+        <v>47.50320101340354</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>101.9284127172178</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>2.727003575187139</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>106.1291724544577</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>149.241951510622</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.4892783404654</v>
+        <v>120.7640381573256</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>85.77388582790076</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>39.9447416048272</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.15707815602161</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>143.799337445607</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.38006817584762</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>240.8213966086076</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>210.6180377869401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.6980411577371</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250807</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>172.3305469651107</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>898.729014069748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2580.733835562671</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,19 +4421,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>616.324863621589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,46 +4573,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2570.839671955317</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2317.077886593409</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1986.014999249838</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.014999249838</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1986.014999249838</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>699.731258496553</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>699.731258496553</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2542.550137315004</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="T8" t="n">
-        <v>2323.915470287066</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="U8" t="n">
-        <v>2323.915470287066</v>
+        <v>2649.166059691552</v>
       </c>
       <c r="V8" t="n">
-        <v>2323.915470287066</v>
+        <v>2318.103172347981</v>
       </c>
       <c r="W8" t="n">
-        <v>2323.915470287066</v>
+        <v>1965.334517077867</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.915470287066</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.915470287066</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>352.6741383092202</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>202.5574988968845</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>202.5574988968845</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>202.5574988968845</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>202.5574988968845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>202.5574988968845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5035,58 +5035,58 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464783</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5153,10 +5153,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
         <v>1554.419908487875</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1188.034946528141</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>960.0453956301237</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>739.2528164865936</v>
       </c>
     </row>
     <row r="14">
@@ -5275,40 +5275,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>521.8150410860691</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>352.8788581581622</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>202.7622187458265</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>202.7622187458265</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>202.7622187458265</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1302.311063288258</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>1302.311063288258</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.311063288258</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X16" t="n">
-        <v>1302.311063288258</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>703.4635059163088</v>
       </c>
     </row>
     <row r="17">
@@ -5503,46 +5503,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W19" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="X19" t="n">
-        <v>1453.060509258584</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="Y19" t="n">
-        <v>1232.267930115054</v>
+        <v>999.1036114208131</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5770,34 +5770,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.6328654632896</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>822.6328654632896</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>822.6328654632896</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>822.6328654632896</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>211.1920047000667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>841.6225995718539</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>613.6330486738366</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.8404695303064</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6232,28 +6232,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>669.3382175405923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>669.3382175405923</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.3606924710442</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608906</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814245</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.7429179653792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1888.508033623874</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1696.8221494507</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1475.055534020226</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1185.95266714587</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1185.95266714587</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>896.5354971089093</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>896.5354971089093</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.7429179653792</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>625.8141267662579</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>736.381378691721</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>102.0055477573314</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X37" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L38" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
@@ -7277,16 +7277,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1866.513008862232</v>
+        <v>1209.806573290293</v>
       </c>
       <c r="V40" t="n">
-        <v>1866.513008862232</v>
+        <v>955.1220850844059</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.767516148151</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7420,13 +7420,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.5797464134954</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>680.5797464134954</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>530.4631070011596</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>382.5500134187665</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>235.6600659208562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>235.6600659208562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X43" t="n">
-        <v>901.3723255570255</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y43" t="n">
-        <v>680.5797464134954</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>444.676025508287</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1099.399357643586</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968865</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145529</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>583.5523174165355</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>219.3344627260154</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.35488666587432</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>7.630896635345152</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892646</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>161.8544041422901</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>283.7959947614038</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.89663580457052</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>136.9698866949909</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.34270184147188</v>
+        <v>59.06794202461171</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>200.7491125086902</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>51.55114770987262</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>185.76491378421</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.77507451402572</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>74.7853159064878</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2354048423647</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>45.39044159700526</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>75.90496054965092</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056973756583659</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>46.25410638698412</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="F2" t="n">
         <v>516206.3229530781</v>
       </c>
-      <c r="F2" t="n">
-        <v>516206.3229530783</v>
-      </c>
       <c r="G2" t="n">
+        <v>516206.3229530782</v>
+      </c>
+      <c r="H2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="I2" t="n">
         <v>516206.322953078</v>
-      </c>
-      <c r="H2" t="n">
-        <v>516206.3229530783</v>
-      </c>
-      <c r="I2" t="n">
-        <v>516206.3229530783</v>
       </c>
       <c r="J2" t="n">
         <v>516206.322953078</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.322953078</v>
       </c>
       <c r="M2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="N2" t="n">
+        <v>516206.3229530781</v>
+      </c>
+      <c r="O2" t="n">
         <v>516206.3229530782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>516206.3229530784</v>
       </c>
       <c r="P2" t="n">
         <v>516206.322953078</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709189</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331356.4032585991</v>
+        <v>-331356.4032585993</v>
       </c>
       <c r="C6" t="n">
-        <v>258611.4759559456</v>
+        <v>258611.4759559454</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559453</v>
+        <v>258611.4759559454</v>
       </c>
       <c r="E6" t="n">
-        <v>-329174.2172911339</v>
+        <v>-329846.1721933924</v>
       </c>
       <c r="F6" t="n">
-        <v>398203.1967022729</v>
+        <v>397531.2418000148</v>
       </c>
       <c r="G6" t="n">
-        <v>398203.1967022724</v>
+        <v>397531.2418000146</v>
       </c>
       <c r="H6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000148</v>
       </c>
       <c r="I6" t="n">
-        <v>398203.1967022729</v>
+        <v>397531.2418000146</v>
       </c>
       <c r="J6" t="n">
-        <v>221779.9775096795</v>
+        <v>221108.0226074216</v>
       </c>
       <c r="K6" t="n">
-        <v>398203.1967022729</v>
+        <v>397531.2418000146</v>
       </c>
       <c r="L6" t="n">
-        <v>398203.1967022727</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="M6" t="n">
-        <v>268560.8818633279</v>
+        <v>267888.9269610699</v>
       </c>
       <c r="N6" t="n">
-        <v>398203.1967022726</v>
+        <v>397531.2418000146</v>
       </c>
       <c r="O6" t="n">
-        <v>398203.1967022728</v>
+        <v>397531.2418000147</v>
       </c>
       <c r="P6" t="n">
-        <v>398203.1967022725</v>
+        <v>397531.2418000146</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>59.16460990797538</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4594595710219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>145.8803980601933</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>113.9539220428405</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>139.1330726458452</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>21.36274864278451</v>
+        <v>126.912511795568</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>33.03720907512042</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>674.9245771183475</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>331.1491914695938</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>324.0400586087371</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>344.8221831907455</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>352.6414051110026</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1782420.345371003</v>
+        <v>1785825.836495452</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>115.2511029009962</v>
+        <v>95.54854747681601</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>140.4147025184292</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>213.7983364272944</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.09874051260470877</v>
       </c>
       <c r="S8" t="n">
-        <v>47.50320101340354</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.82704427691574</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>2.727003575187139</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>9.250853083759075</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>106.1291724544577</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.7640381573256</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.2032661234051</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>80.00124118081804</v>
       </c>
       <c r="X28" t="n">
-        <v>39.9447416048272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>25.21672886433316</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.799337445607</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.68750238080776</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U40" t="n">
-        <v>240.8213966086076</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.5103646250807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.3305469651107</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,13 +4354,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2580.733835562671</v>
+        <v>2545.606717228699</v>
       </c>
       <c r="T2" t="n">
-        <v>2580.733835562671</v>
+        <v>2326.972050200762</v>
       </c>
       <c r="U2" t="n">
         <v>2326.972050200762</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>195.7760146672626</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.049353126703</v>
       </c>
       <c r="S8" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.049353126703</v>
       </c>
       <c r="T8" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.049353126703</v>
       </c>
       <c r="U8" t="n">
-        <v>2649.166059691552</v>
+        <v>2697.049353126703</v>
       </c>
       <c r="V8" t="n">
-        <v>2318.103172347981</v>
+        <v>2697.049353126703</v>
       </c>
       <c r="W8" t="n">
-        <v>1965.334517077867</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5032,37 +5032,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.6043516563539</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="C13" t="n">
-        <v>388.668168728447</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,49 +5202,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799874</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593987</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.034946528141</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>960.0453956301237</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.2528164865936</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="14">
@@ -5287,13 +5287,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5308,7 +5308,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>521.8150410860691</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C16" t="n">
-        <v>352.8788581581622</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D16" t="n">
-        <v>202.7622187458265</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E16" t="n">
-        <v>202.7622187458265</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>202.7622187458265</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143261</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163088</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.4635059163088</v>
+        <v>1032.681217320565</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,10 +5503,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807097</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,7 +5624,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5633,7 +5633,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5676,49 +5676,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931531</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.7880996267</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208131</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208131</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="X19" t="n">
-        <v>999.1036114208131</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.1036114208131</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,16 +5737,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5764,7 +5764,7 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,7 +5831,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4326.137700633767</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468568</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6256,16 +6256,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>487.6897527103525</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C28" t="n">
-        <v>487.6897527103525</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X28" t="n">
-        <v>669.3382175405923</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y28" t="n">
-        <v>669.3382175405923</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1427.589065961278</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1427.589065961278</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1138.171895924317</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>910.1823450263</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>625.8141267662579</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1076.848340014667</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>964.3709295897384</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>736.381378691721</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>591.1295226860574</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,19 +7110,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
         <v>1542.890966501056</v>
@@ -7131,16 +7131,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423041</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,67 +7159,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.806573290293</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1220850844059</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>665.7049150474453</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>909.27315417834</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413794</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X43" t="n">
-        <v>391.8664332433621</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>444.676025508287</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1099.399357643586</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1963.918173296941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2497.450077968865</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.6435265574</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145529</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>583.5523174165355</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400235</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>272.8828616575889</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,16 +9178,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400235</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.35488666587432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.630896635345152</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400261</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>189.7998007892646</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8544041422901</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>113.4197768217121</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.7959947614038</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>170.5811270981782</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>59.89663580457052</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.06794202461171</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>27.38138722868968</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>206.5217571557729</v>
       </c>
       <c r="X28" t="n">
-        <v>185.76491378421</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>260.9951093412797</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.7853159064878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>88.74646026576141</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U40" t="n">
-        <v>45.39044159700526</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.25410638698412</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.625218775</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187748</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894406.625218775</v>
+        <v>894406.6252187749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="G2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="H2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="I2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="J2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="O2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="P2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530781</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709188</v>
@@ -26441,25 +26441,25 @@
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-331356.4032585993</v>
+        <v>-331356.4032585996</v>
       </c>
       <c r="C6" t="n">
         <v>258611.4759559454</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559454</v>
+        <v>258611.4759559456</v>
       </c>
       <c r="E6" t="n">
-        <v>-329846.1721933924</v>
+        <v>-329241.4127813596</v>
       </c>
       <c r="F6" t="n">
-        <v>397531.2418000148</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="G6" t="n">
-        <v>397531.2418000146</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="H6" t="n">
-        <v>397531.2418000148</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="I6" t="n">
-        <v>397531.2418000146</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="J6" t="n">
-        <v>221108.0226074216</v>
+        <v>221712.7820194539</v>
       </c>
       <c r="K6" t="n">
-        <v>397531.2418000146</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="L6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="M6" t="n">
-        <v>267888.9269610699</v>
+        <v>268493.6863731019</v>
       </c>
       <c r="N6" t="n">
-        <v>397531.2418000146</v>
+        <v>398136.0012120469</v>
       </c>
       <c r="O6" t="n">
-        <v>397531.2418000147</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="P6" t="n">
-        <v>397531.2418000146</v>
+        <v>398136.0012120468</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.16460990797538</v>
+        <v>78.86716533215552</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>113.9539220428405</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.379662062207</v>
       </c>
       <c r="S8" t="n">
-        <v>126.912511795568</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282428</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427827</v>
+        <v>728.4729760499208</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282428</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,10 +36132,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,13 +36372,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.1491914695938</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>344.8221831907455</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282451</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>352.6414051110026</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
